--- a/Vaste Lasten.xlsx
+++ b/Vaste Lasten.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9648"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
@@ -567,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,8 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>24.99</v>
+        <f>(24.99/3)</f>
+        <v>8.33</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -635,6 +636,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
+        <f>10/12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -692,7 +694,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="11">
         <f>SUM(A2:A9)</f>
-        <v>93.73333333333332</v>
+        <v>77.073333333333338</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
@@ -718,7 +720,7 @@
       <c r="A14" s="1"/>
       <c r="C14" s="8">
         <f>C12-C11</f>
-        <v>51.26666666666668</v>
+        <v>67.926666666666662</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
@@ -733,7 +735,7 @@
       <colorScale>
         <cfvo type="num" val="25"/>
         <cfvo type="num" val="50"/>
-        <cfvo type="num" val="90"/>
+        <cfvo type="num" val="100"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/Vaste Lasten.xlsx
+++ b/Vaste Lasten.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian Dibbets\Documents\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9648"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="22110" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,17 +571,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="10" width="20.77734375" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>15</v>
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>10.45</v>
       </c>
@@ -605,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4.99</v>
       </c>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>24.99</v>
       </c>
@@ -627,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3.99</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>24.5</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>9.99</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>13.99</v>
       </c>
@@ -683,13 +683,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="11">
         <f>SUM(A2:A9)</f>
         <v>93.73333333333332</v>
@@ -698,33 +698,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="13">
         <f>SUM(C2:C9)</f>
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="8">
         <f>C12-C11</f>
-        <v>51.26666666666668</v>
+        <v>91.26666666666668</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>
